--- a/FileString/FSANDROID/DataSet/DataSignUp.xlsx
+++ b/FileString/FSANDROID/DataSet/DataSignUp.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="53">
   <si>
     <t>Message</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>secondaryunverify</t>
-  </si>
-  <si>
-    <t>test edit file and wait noti push to owner to update status ==&gt;</t>
   </si>
   <si>
     <t>linhduyng00@gmail.com</t>
@@ -543,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -565,7 +562,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -573,7 +570,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -581,7 +578,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -601,11 +598,6 @@
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1444,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,17 +1862,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,10 +1892,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
